--- a/project2_tennis_pt_app.xlsx
+++ b/project2_tennis_pt_app.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="1520" windowWidth="28760" windowHeight="11120" tabRatio="639" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="1520" windowWidth="28760" windowHeight="11120" tabRatio="639" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Player_model" sheetId="2" r:id="rId1"/>
@@ -2912,7 +2912,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="220">
+  <cellStyleXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3094,6 +3094,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3593,7 +3601,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
-  <cellStyles count="220">
+  <cellStyles count="228">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3715,6 +3723,10 @@
     <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3813,6 +3825,10 @@
     <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5025,10 +5041,10 @@
   <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="18" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="18" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5411,7 +5427,7 @@
       </c>
       <c r="C9" s="151" t="str">
         <f>CONCATENATE(B9,B18,B17,C18,C17,D18,D17,E18,E17,F18,F17,G18,G17,H18,H17,I18,I17,J18,J17,K18,K17,L18,L17,M18,M17,N18,N17,O18,O17,P18,P17,Q18,Q17,R18,R17,S18,S17,T18,T17,U18,U17,V18,V17,W18,W17,X18,X17)</f>
-        <v xml:space="preserve">rails g scaffold Player first_name:string last_name:string user_name:string password:string photo:string team_name:string role:string gender:string age_category:string skill_level:string record_ind:integer record_team:integer phone_num:string phone_type:string email:string day_pref1:string time_pref1:stringday_pref2:string time_pref2:stringpassword_digest:string remember_token:string created_at:datetime updated_at:datetime </v>
+        <v xml:space="preserve">rails g scaffold Player first_name:string last_name:string user_name:string password:string photo:string team_name:string role:string gender:string age_category:string skill_level:string record_ind:integer record_team:integer phone_num:string phone_type:string email:string day_pref1:string time_pref1:string day_pref2:string time_pref2:string password_digest:string remember_token:string created_at:datetime updated_at:datetime </v>
       </c>
       <c r="D9" s="152"/>
       <c r="E9" s="152"/>
@@ -6040,13 +6056,13 @@
         <v>129</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="S17" s="14" t="s">
         <v>129</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="U17" s="14" t="s">
         <v>129</v>

--- a/project2_tennis_pt_app.xlsx
+++ b/project2_tennis_pt_app.xlsx
@@ -2912,7 +2912,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="228">
+  <cellStyleXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3094,6 +3094,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3601,7 +3637,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
-  <cellStyles count="228">
+  <cellStyles count="264">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3727,6 +3763,24 @@
     <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3829,6 +3883,24 @@
     <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5044,7 +5116,7 @@
       <pane xSplit="1" ySplit="18" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9:Z9"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
